--- a/biology/Médecine/Valve_cardiaque/Valve_cardiaque.xlsx
+++ b/biology/Médecine/Valve_cardiaque/Valve_cardiaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une valve cardiaque est un élément du cœur séparant les différentes cavités et empêchant le sang de refluer dans le mauvais sens.
 Chez les mammifères dont le cœur est composé de quatre cavités, le cœur contient quatre valves :
@@ -517,9 +529,11 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le Trésor de la langue française informatisé[1], il est préconisé l'emploi du mot « valvule », la « valve » étant un composé de cette dernière. La plupart des traités de médecine emploie cependant le terme « valve »[2]. Les dictionnaires spécialisés en médecine préconisent également le terme « valve », la « valvule » étant une partie de la valve, ou plus spécifique aux veines[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le Trésor de la langue française informatisé, il est préconisé l'emploi du mot « valvule », la « valve » étant un composé de cette dernière. La plupart des traités de médecine emploie cependant le terme « valve ». Les dictionnaires spécialisés en médecine préconisent également le terme « valve », la « valvule » étant une partie de la valve, ou plus spécifique aux veines.
 L'adjectif y référant est « valvulaire » et les termes dérivés sont par exemple « valvulopathie » et « valvuloplastie ».
 </t>
         </is>
@@ -549,60 +563,203 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce sont des structures élastiques, non musculaires, sans innervation ni irrigation sanguine, avec une constitution similaire à celle du cartilage articulaire, mais anisotropique. En position fermée, leur jointure est continente, empêchant le passage du sang.
-Valve mitrale
-Elle est composée de deux feuillets, insérées sur un anneau (l'anneau mitral ou anneau atrioventriculaire gauche) séparant l'atrium gauche et le ventricule gauche et reliés au muscle ventriculaire (piliers ou muscle papillaire) par des cordages tendineux. Les cordages tendineux sont insérés sur les feuillets valvulaires afin d'optimiser la répartition des contraintes lors de la systole[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des structures élastiques, non musculaires, sans innervation ni irrigation sanguine, avec une constitution similaire à celle du cartilage articulaire, mais anisotropique. En position fermée, leur jointure est continente, empêchant le passage du sang.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Valve mitrale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est composée de deux feuillets, insérées sur un anneau (l'anneau mitral ou anneau atrioventriculaire gauche) séparant l'atrium gauche et le ventricule gauche et reliés au muscle ventriculaire (piliers ou muscle papillaire) par des cordages tendineux. Les cordages tendineux sont insérés sur les feuillets valvulaires afin d'optimiser la répartition des contraintes lors de la systole.
 La valve mitrale présente donc deux parties que l'on appelle des cuspides (séparées par une petite commissure) :
 la cuspide latérale est appelée la petite valve, elle s'insère à la partie externe de l'anneau ;
 la cuspide septale est appelée la grande valve, elle s'insère au niveau du septum.
 L'ensemble "cordages+piliers" est appelé appareil sous-valvulaire. Son nom provient de sa forme de « mitre », chapeau ecclésiastique.
-Valve tricuspide
-Elle est composée de trois feuillets, insérées sur un anneau (l'anneau tricuspidien ou anneau atrioventriculaire droit) séparant l'atrium droit du ventricule droit. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Valve tricuspide</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est composée de trois feuillets, insérées sur un anneau (l'anneau tricuspidien ou anneau atrioventriculaire droit) séparant l'atrium droit du ventricule droit. 
 La valve tricuspide est composée comme son nom l'indique de trois cuspides :
 une cuspide antérieure ou latérale ;
 une cuspide septale, contre le septum inter-ventriculaire ;
 une cuspide inférieure.
 Ces trois valvules se réunissent pendant le temps de systole ventriculaire et s'éloignent lors de la systole auriculaire.
-Valve aortique
-Elle est composée de trois feuillets appelés cuspides ou cusps, valvules  ou sigmoïdes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Valve aortique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Elle est composée de trois feuillets appelés cuspides ou cusps, valvules  ou sigmoïdes :
 une valvule dorsale ;
 une valvule antéro-latérale gauche ;
-une valvule antéro-latérale droite.
-Valve pulmonaire
-Elle est composée de trois feuillets appelés cuspides, valvules ou sigmoïdes :
+une valvule antéro-latérale droite.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Valve pulmonaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Elle est composée de trois feuillets appelés cuspides, valvules ou sigmoïdes :
 une valvule antérieure ;
 une valvule dorso-latérale gauche ;
 une valvule dorso-latérale droite.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Valve_cardiaque</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Valve_cardiaque</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ouverture et la fermeture sont complètement passives. Elles dépendent de la différence de pression de chaque côte de la valve : lorsque la pression d'aval est inférieure à la pression d'amont, la valve est ouverte ; dans le cas contraire, la valve est fermée.
 La fermeture des valves donne les bruits du cœur, le premier bruit, appelé B1, correspondant à la fermeture des valves mitrales et tricuspides et le second bruit, B2, à la fermeture des valves aortiques et pulmonaires.
@@ -612,31 +769,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Valve_cardiaque</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Valve_cardiaque</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Exploration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les valves ne sont pas visibles normalement sur une radiographie standard. Elles sont mal visualisées par un scanner ou par résonance magnétique nucléaire, essentiellement parce qu'elles sont des structures très mobiles et que la résolution temporelle de ces deux examens reste insuffisante.
 L'examen de choix est l'échographie cardiaque. Elle permet de visualiser directement les valves et d'en analyser le mouvement. Elle est couplée au Doppler. Ce dernier, en analysant la vitesse du sang, permet de visualiser et de quantifier une fuite (inversion du flux) et de quantifier un rétrécissement (accélération du flux qui reste dans le bon sens). L'examen peut être complété par une échographie par voie trans-œsophagienne permettant de mieux visualiser les détails.
@@ -645,31 +804,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Valve_cardiaque</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Valve_cardiaque</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_cardiaque</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Pathologie des valves</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Une valve peut être atteinte de deux manières :
 un manque de continence à sa fermeture provoquant une fuite (appelée également insuffisance) ;
